--- a/calculators/ve_lives_saved_calculator.xlsx
+++ b/calculators/ve_lives_saved_calculator.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\calculators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6DDB13-3DB1-450C-8A7C-10060C8D0897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E5AD3E-F542-4702-BFB4-D0389FF16C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VE lives saved calculator" sheetId="1" r:id="rId1"/>
+    <sheet name="VE calculated from ACM rates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Label</t>
   </si>
@@ -54,6 +55,42 @@
   </si>
   <si>
     <t>number of deaths observed in 2021 and 2022</t>
+  </si>
+  <si>
+    <t>Baseline ACM</t>
+  </si>
+  <si>
+    <t>Vax</t>
+  </si>
+  <si>
+    <t>Unvaxxed</t>
+  </si>
+  <si>
+    <t>ACM during high COVID</t>
+  </si>
+  <si>
+    <t>THIS MEANS:</t>
+  </si>
+  <si>
+    <t>COVID mortality</t>
+  </si>
+  <si>
+    <t>Expected uvax mortality</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>VE (death)</t>
+  </si>
+  <si>
+    <t>VEdeath=.10 means it reduces death by 10%</t>
+  </si>
+  <si>
+    <t>claimed VE value</t>
+  </si>
+  <si>
+    <t>thisis 1940 numbers</t>
   </si>
 </sst>
 </file>
@@ -112,12 +149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -465,7 +503,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.17</v>
+        <v>0.4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -474,8 +515,114 @@
       </c>
       <c r="B5" s="2">
         <f>((B2 / (1 + (B3 / (1 - B3)) * (1 - B4))) * (1 + (B3 / (1 - B3)))) - B2</f>
-        <v>96176.5834279228</v>
-      </c>
+        <v>276900.55555555574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710F438D-9D7B-45DA-96BF-DC317563291F}">
+  <dimension ref="A2:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>3.35</v>
+      </c>
+      <c r="C3">
+        <v>8.98</v>
+      </c>
+      <c r="D3">
+        <f>C3/B3</f>
+        <v>2.6805970149253731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C4">
+        <v>14.12</v>
+      </c>
+      <c r="D4">
+        <f>C4/B4</f>
+        <v>2.887525562372188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <f>B4-B3</f>
+        <v>1.5399999999999996</v>
+      </c>
+      <c r="C7">
+        <f>C4-C3</f>
+        <v>5.1399999999999988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <f>D3*B7</f>
+        <v>4.1281194029850736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <f>1-(C8/C7)</f>
+        <v>0.1968639293803357</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/calculators/ve_lives_saved_calculator.xlsx
+++ b/calculators/ve_lives_saved_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\calculators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E5AD3E-F542-4702-BFB4-D0389FF16C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF99230-F130-4614-A734-1F8D24001FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VE lives saved calculator" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Label</t>
   </si>
@@ -87,10 +87,19 @@
     <t>VEdeath=.10 means it reduces death by 10%</t>
   </si>
   <si>
-    <t>claimed VE value</t>
-  </si>
-  <si>
     <t>thisis 1940 numbers</t>
+  </si>
+  <si>
+    <t>claimed VE value. .10 means 10% .75 is 75% death reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1800 to 2800 deaths per million </t>
+  </si>
+  <si>
+    <t>1,000 * 340M</t>
+  </si>
+  <si>
+    <t>340,000 d excess deaths</t>
   </si>
 </sst>
 </file>
@@ -171,6 +180,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>37193</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A28C2C9-C764-83CF-E82A-8C876A504572}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2286000"/>
+          <a:ext cx="7257143" cy="4942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>712030</v>
+        <v>400000</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -503,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -515,11 +573,25 @@
       </c>
       <c r="B5" s="2">
         <f>((B2 / (1 + (B3 / (1 - B3)) * (1 - B4))) * (1 + (B3 / (1 - B3)))) - B2</f>
-        <v>276900.55555555574</v>
+        <v>65116.279069767508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -527,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710F438D-9D7B-45DA-96BF-DC317563291F}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -618,7 +690,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
